--- a/test_files/testiautomaatiokoodisto1_with_codes.xlsx
+++ b/test_files/testiautomaatiokoodisto1_with_codes.xlsx
@@ -17,27 +17,57 @@
     <t>CODEVALUE</t>
   </si>
   <si>
+    <t>BROADER</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
     <t>ORGANIZATION</t>
   </si>
   <si>
-    <t>CLASSIFICATION</t>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>INFORMATIONDOMAIN</t>
+  </si>
+  <si>
+    <t>PREFLABEL_SV</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_FI</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_SV</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_EN</t>
+  </si>
+  <si>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>Koodi1000</t>
   </si>
   <si>
     <t>VERSION</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
-    <t>PREFLABEL_SV</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
     <t>DEFINITION_FI</t>
   </si>
   <si>
@@ -47,81 +77,54 @@
     <t>DEFINITION_EN</t>
   </si>
   <si>
-    <t>DESCRIPTION_FI</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_SV</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_EN</t>
-  </si>
-  <si>
-    <t>BROADER</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
-  </si>
-  <si>
-    <t>Koodi1000</t>
+    <t>CHANGENOTE_FI</t>
+  </si>
+  <si>
+    <t>CHANGENOTE_SV</t>
+  </si>
+  <si>
+    <t>CHANGENOTE_EN</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>LEGALBASE</t>
+  </si>
+  <si>
+    <t>GOVERNANCEPOLICY</t>
+  </si>
+  <si>
+    <t>LICENSE</t>
+  </si>
+  <si>
+    <t>testiautomaatiokoodisto</t>
+  </si>
+  <si>
+    <t>74a41211-8c99-4835-a519-7a61612b1098</t>
+  </si>
+  <si>
+    <t>P1</t>
   </si>
   <si>
     <t>DRAFT</t>
   </si>
   <si>
+    <t>testiautomaatiokoodisto1</t>
+  </si>
+  <si>
     <t>Koodi1001</t>
   </si>
   <si>
-    <t>CHANGENOTE_FI</t>
-  </si>
-  <si>
-    <t>CHANGENOTE_SV</t>
-  </si>
-  <si>
     <t>Koodi1002</t>
   </si>
   <si>
-    <t>CHANGENOTE_EN</t>
-  </si>
-  <si>
     <t>Koodi1003</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>LEGALBASE</t>
-  </si>
-  <si>
-    <t>GOVERNANCEPOLICY</t>
-  </si>
-  <si>
-    <t>LICENSE</t>
-  </si>
-  <si>
     <t>Koodi1004</t>
   </si>
   <si>
-    <t>testiautomaatiokoodisto</t>
-  </si>
-  <si>
-    <t>74a41211-8c99-4835-a519-7a61612b1098</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>Koodi1005</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>koodi01</t>
-  </si>
-  <si>
-    <t>testiautomaatiokoodisto1</t>
   </si>
 </sst>
 </file>
@@ -194,11 +194,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -207,6 +203,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -243,91 +243,91 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -340,8 +340,8 @@
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1368,57 +1368,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1426,96 +1426,96 @@
       <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
